--- a/ОписаниеИзменений/Описание изменений по форме/0007 Распределение амортизации по справке ПТО.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0007 Распределение амортизации по справке ПТО.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5563DB7-222A-42E8-8407-E661137A1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7B0A4E-27A1-4364-BC7D-F45A93A35B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -332,29 +353,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +639,7 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,10 +685,10 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="22">
         <v>45817</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -717,10 +717,10 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -749,10 +749,10 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -781,10 +781,10 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -813,10 +813,10 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -845,10 +845,10 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="28">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -877,8 +877,8 @@
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -907,10 +907,10 @@
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -939,10 +939,10 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -971,10 +971,10 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="20"/>
@@ -28634,16 +28634,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
